--- a/Projeto-Documentacao/Banco/DicionarioDeDados.xlsx
+++ b/Projeto-Documentacao/Banco/DicionarioDeDados.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Banco\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="2400"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
   <si>
     <t>Entidade Medicamentos</t>
   </si>
@@ -381,135 +389,48 @@
   </si>
   <si>
     <t>Código de identificação do alerta</t>
-  </si>
-  <si>
-    <t>Entidade Analytics</t>
-  </si>
-  <si>
-    <t>Código dos analytics</t>
-  </si>
-  <si>
-    <t>idAnalytics</t>
-  </si>
-  <si>
-    <t>Identifica os analytics</t>
-  </si>
-  <si>
-    <t>Mediana da temperatura</t>
-  </si>
-  <si>
-    <t>MedianaTemp</t>
-  </si>
-  <si>
-    <t>Guarda a mediana da temperatura da ocorrencia</t>
-  </si>
-  <si>
-    <t>Média da temperatura</t>
-  </si>
-  <si>
-    <t>MediaTemp</t>
-  </si>
-  <si>
-    <t>Guarda a média da temperatura da ocorrencia</t>
-  </si>
-  <si>
-    <t>Primeiro quartil da temperatura</t>
-  </si>
-  <si>
-    <t>PrimeiroQuarTem</t>
-  </si>
-  <si>
-    <t>Guarda o primeiro quartil da temperatura da ocorrencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terceiro quartil da temperatura
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerceiroQuarTem
-</t>
-  </si>
-  <si>
-    <t>Guarda o terceiro quartil da temperatura da ocorrencia</t>
-  </si>
-  <si>
-    <t>Mediana da umidade</t>
-  </si>
-  <si>
-    <t>MedianaUmid</t>
-  </si>
-  <si>
-    <t>Guarda a mediana da umidade da ocorrencia</t>
-  </si>
-  <si>
-    <t>Média da umidade</t>
-  </si>
-  <si>
-    <t>MediaUmid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guarda a media da umidade da ocorrencia
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primeiro quartil da umidade
-</t>
-  </si>
-  <si>
-    <t>PrimeiroQuarUmid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guarda o primeiro quartil da umidade da ocorrencia
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terceiro quartil da umidade
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerceiroQuarUmid
-</t>
-  </si>
-  <si>
-    <t>Guarda o terceiro quartil da umidade da ocorrencia</t>
-  </si>
-  <si>
-    <t>Data do Registro</t>
-  </si>
-  <si>
-    <t>DataRegistro</t>
-  </si>
-  <si>
-    <t>Guarda a data da ocorrencia</t>
-  </si>
-  <si>
-    <t>Identifica a qual sensor se refere a ocorrencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -517,29 +438,47 @@
         <bgColor rgb="FF8EAADB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -549,6 +488,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -563,14 +503,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -582,1553 +526,1875 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="27">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFBDD6EE"/>
           <bgColor rgb="FFBDD6EE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDEEAF6"/>
           <bgColor rgb="FFDEEAF6"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="9">
-    <tableStyle count="3" pivot="0" name="Planilha1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 2">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 2" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 3">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 3" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 4">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 4" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 5">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 5" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 6">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 6" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 7">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 7" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 8">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 8" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Planilha1-style 9">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Planilha1-style 9" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:F5" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A2:F5">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A8:F13" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="A8:F13">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A38:F49" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="A38:F49">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A16:F21" displayName="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_4" displayName="Table_4" ref="A16:F21">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A32:F35" displayName="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_5" displayName="Table_5" ref="A32:F35">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A57:F59" displayName="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_6" displayName="Table_6" ref="A57:F59">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A52:F54" displayName="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_7" displayName="Table_7" ref="A52:F54">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A24:F29" displayName="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_8" displayName="Table_8" ref="A24:F29">
   <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
+    <tableColumn id="1" name="Atributo"/>
+    <tableColumn id="2" name="Nome do Campo"/>
+    <tableColumn id="3" name="Tipo de dado"/>
+    <tableColumn id="4" name="Tamanho"/>
+    <tableColumn id="5" name="Restrição"/>
+    <tableColumn id="6" name="Descrição"/>
   </tableColumns>
-  <tableStyleInfo name="Planilha1-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Planilha1-style 8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A62:F73" displayName="Table_9" id="9">
-  <tableColumns count="6">
-    <tableColumn name="Atributo" id="1"/>
-    <tableColumn name="Nome do Campo" id="2"/>
-    <tableColumn name="Tipo de dado" id="3"/>
-    <tableColumn name="Tamanho" id="4"/>
-    <tableColumn name="Restrição" id="5"/>
-    <tableColumn name="Descrição" id="6"/>
-  </tableColumns>
-  <tableStyleInfo name="Planilha1-style 9" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.43"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="4" max="4" width="14.14"/>
-    <col customWidth="1" min="5" max="5" width="30.0"/>
-    <col customWidth="1" min="6" max="6" width="22.29"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="21">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="127.5" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" ht="127.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="45">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="3">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" ht="45">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" ht="21">
+      <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:11" ht="120">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:11" ht="30">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:11" ht="30">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:11" ht="45">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:11" ht="21">
+      <c r="A15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="9">
-        <v>30.0</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="6">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="s">
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="60">
+      <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="21">
-        <v>40.0</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="17">
+        <v>40</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16" t="s">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="21">
-        <v>30.0</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="17">
+        <v>30</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="6">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:6" ht="39" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:6" ht="36" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="6">
+        <v>50</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:6" ht="33" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="9">
-        <v>35.0</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="6">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="16" t="s">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:6" ht="36" customHeight="1">
+      <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="6">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="9">
-        <v>35.0</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="6">
+        <v>35</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:6" ht="33" customHeight="1">
+      <c r="A42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="9">
-        <v>35.0</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="6">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="6">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="9">
-        <v>15.0</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="6">
         <v>15</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="E44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:6" ht="33" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="D45" s="6">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:6" ht="60" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="9">
-        <v>255.0</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="6">
+        <v>255</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="6">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="16" t="s">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:6" ht="36" customHeight="1">
+      <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A54" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="6">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="16" t="s">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A58" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A59" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="6">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A61" s="27"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -3050,9 +3316,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A61:F61"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A15:F15"/>
@@ -3061,20 +3326,17 @@
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A51:F51"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="9">
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
-    <tablePart r:id="rId17"/>
-    <tablePart r:id="rId18"/>
-    <tablePart r:id="rId19"/>
+  <tableParts count="8">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>